--- a/Topic 4/GAZP_SBER.xlsx
+++ b/Topic 4/GAZP_SBER.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinU\2021-2022\Д_Excel\Тема 4 КРА в Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvsmirnov\Downloads\Д_Excel\Тема 4 КРА в Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C69845E-2048-4472-A423-7019D6C42778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F9CFE4-A04D-4191-8E3F-BDD6A6FADDF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1770" windowWidth="25620" windowHeight="14175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1770" windowWidth="25620" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="4" r:id="rId1"/>
     <sheet name="Акции" sheetId="3" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId3"/>
+    <sheet name="Задание" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">Акции!$A$1:$N$46</definedName>
@@ -24,15 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -56,14 +47,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -309,9 +300,10 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -323,7 +315,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -366,11 +358,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -382,9 +413,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2334,6 +2368,198 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6600825" cy="1125693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA25B6E-8500-4F25-9C92-C540C57EC7EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="942975"/>
+          <a:ext cx="6600825" cy="1125693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Задание.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>1. Постройте диаграмму разброса </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>зависимости цены закрытия</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Сбербанка (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SBER.&lt;CLOSE&gt;) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>от цены закрытия Газпрома</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (&lt;CLOSE&gt;)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>2. Найдите линейную регрессию  цены закрытия</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> Сбербанка от цены закрытия Газпрома.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>2. Найдите нелинейную в форме</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> полинома третьей степени регрессию </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>цены закрытия</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Сбербанка от цены закрытия Газпрома.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="4" xr16:uid="{BA0134DD-7AEE-44CB-820E-417DE724D304}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="17" unboundColumnsRight="2">
@@ -2377,10 +2603,10 @@
     <tableColumn id="12" xr3:uid="{F94F0F37-FAC4-408B-907A-B8D83D294CFD}" uniqueName="12" name="SBER.&lt;LOW&gt;" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{504225E1-4128-4151-8996-4AC5E9254995}" uniqueName="13" name="SBER.&lt;CLOSE&gt;" queryTableFieldId="13"/>
     <tableColumn id="14" xr3:uid="{84B6DA63-843E-4F08-B7DE-BCB232B5DC84}" uniqueName="14" name="SBER.&lt;VOL&gt;" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{804CD601-A418-4AB1-ACB0-A6E52E86442D}" uniqueName="15" name="ЛинМод" queryTableFieldId="15" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{804CD601-A418-4AB1-ACB0-A6E52E86442D}" uniqueName="15" name="ЛинМод" queryTableFieldId="15" dataDxfId="5">
       <calculatedColumnFormula>$J$57+$J$56*Таблица3[[#This Row],[No]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{B14C11BA-6D18-47BC-8E5C-783F4E7C6C64}" uniqueName="16" name="Парабола" queryTableFieldId="16" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{B14C11BA-6D18-47BC-8E5C-783F4E7C6C64}" uniqueName="16" name="Парабола" queryTableFieldId="16" dataDxfId="4">
       <calculatedColumnFormula>$M$52+$M$53*Таблица3[[#This Row],[No]]+$M$54*Таблица3[[#This Row],[No]]^2+$M$55*Таблица3[[#This Row],[No]]^3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2395,16 +2621,16 @@
     <tableColumn id="1" xr3:uid="{A266C273-5947-4920-8EF9-1D960F678712}" name="X">
       <calculatedColumnFormula>F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{90A5823F-3426-4B9E-A93F-AD5D651E1F74}" name="X^2" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{90A5823F-3426-4B9E-A93F-AD5D651E1F74}" name="X^2" dataDxfId="3">
       <calculatedColumnFormula>R2^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3BBC1B7-3DC4-4161-897B-2BB63EA836A6}" name="X^3" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{C3BBC1B7-3DC4-4161-897B-2BB63EA836A6}" name="X^3" dataDxfId="2">
       <calculatedColumnFormula>R2^3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{858CE5D3-1377-4A2B-B2F0-5CF6895D8D41}" name="Y" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{858CE5D3-1377-4A2B-B2F0-5CF6895D8D41}" name="Y" dataDxfId="1">
       <calculatedColumnFormula>M2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{32194849-2BDA-4BD1-8C48-84C866F4D779}" name="No" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{32194849-2BDA-4BD1-8C48-84C866F4D779}" name="No" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2686,10 +2912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F72E84-114C-4896-88CC-F254BBDD5420}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,8 +3192,8 @@
         <v>4.6130912978553326E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2980,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5873969-44F3-4716-9C99-4AAF47E1D45F}">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3210,7 +3436,7 @@
         <v>309.89</v>
       </c>
       <c r="V3" s="1">
-        <f>V2+$P$54</f>
+        <f t="shared" ref="V3:V46" si="4">V2+$P$54</f>
         <v>287.79955555555557</v>
       </c>
     </row>
@@ -3282,7 +3508,7 @@
         <v>311.10000000000002</v>
       </c>
       <c r="V4" s="1">
-        <f>V3+$P$54</f>
+        <f t="shared" si="4"/>
         <v>289.59911111111114</v>
       </c>
     </row>
@@ -3354,7 +3580,7 @@
         <v>315.82</v>
       </c>
       <c r="V5" s="1">
-        <f>V4+$P$54</f>
+        <f t="shared" si="4"/>
         <v>291.39866666666671</v>
       </c>
     </row>
@@ -3426,7 +3652,7 @@
         <v>319.14999999999998</v>
       </c>
       <c r="V6" s="1">
-        <f>V5+$P$54</f>
+        <f t="shared" si="4"/>
         <v>293.19822222222228</v>
       </c>
     </row>
@@ -3498,7 +3724,7 @@
         <v>326.91000000000003</v>
       </c>
       <c r="V7" s="1">
-        <f>V6+$P$54</f>
+        <f t="shared" si="4"/>
         <v>294.99777777777786</v>
       </c>
     </row>
@@ -3570,7 +3796,7 @@
         <v>330.11</v>
       </c>
       <c r="V8" s="1">
-        <f>V7+$P$54</f>
+        <f t="shared" si="4"/>
         <v>296.79733333333343</v>
       </c>
     </row>
@@ -3642,7 +3868,7 @@
         <v>329.9</v>
       </c>
       <c r="V9" s="1">
-        <f>V8+$P$54</f>
+        <f t="shared" si="4"/>
         <v>298.596888888889</v>
       </c>
     </row>
@@ -3714,7 +3940,7 @@
         <v>328.57</v>
       </c>
       <c r="V10" s="1">
-        <f>V9+$P$54</f>
+        <f t="shared" si="4"/>
         <v>300.39644444444457</v>
       </c>
     </row>
@@ -3786,7 +4012,7 @@
         <v>328.68</v>
       </c>
       <c r="V11" s="1">
-        <f>V10+$P$54</f>
+        <f t="shared" si="4"/>
         <v>302.19600000000014</v>
       </c>
     </row>
@@ -3858,7 +4084,7 @@
         <v>329.36</v>
       </c>
       <c r="V12" s="1">
-        <f>V11+$P$54</f>
+        <f t="shared" si="4"/>
         <v>303.99555555555571</v>
       </c>
     </row>
@@ -3930,7 +4156,7 @@
         <v>334.5</v>
       </c>
       <c r="V13" s="1">
-        <f>V12+$P$54</f>
+        <f t="shared" si="4"/>
         <v>305.79511111111128</v>
       </c>
     </row>
@@ -4002,7 +4228,7 @@
         <v>334.9</v>
       </c>
       <c r="V14" s="1">
-        <f>V13+$P$54</f>
+        <f t="shared" si="4"/>
         <v>307.59466666666685</v>
       </c>
     </row>
@@ -4074,7 +4300,7 @@
         <v>332.69</v>
       </c>
       <c r="V15" s="1">
-        <f>V14+$P$54</f>
+        <f t="shared" si="4"/>
         <v>309.39422222222242</v>
       </c>
     </row>
@@ -4146,7 +4372,7 @@
         <v>325.67</v>
       </c>
       <c r="V16" s="1">
-        <f>V15+$P$54</f>
+        <f t="shared" si="4"/>
         <v>311.193777777778</v>
       </c>
     </row>
@@ -4218,7 +4444,7 @@
         <v>329.22</v>
       </c>
       <c r="V17" s="1">
-        <f>V16+$P$54</f>
+        <f t="shared" si="4"/>
         <v>312.99333333333357</v>
       </c>
     </row>
@@ -4290,7 +4516,7 @@
         <v>324.83</v>
       </c>
       <c r="V18" s="1">
-        <f>V17+$P$54</f>
+        <f t="shared" si="4"/>
         <v>314.79288888888914</v>
       </c>
     </row>
@@ -4362,7 +4588,7 @@
         <v>324.57</v>
       </c>
       <c r="V19" s="1">
-        <f>V18+$P$54</f>
+        <f t="shared" si="4"/>
         <v>316.59244444444471</v>
       </c>
     </row>
@@ -4434,7 +4660,7 @@
         <v>322.54000000000002</v>
       </c>
       <c r="V20" s="1">
-        <f>V19+$P$54</f>
+        <f t="shared" si="4"/>
         <v>318.39200000000028</v>
       </c>
     </row>
@@ -4506,7 +4732,7 @@
         <v>327.41000000000003</v>
       </c>
       <c r="V21" s="1">
-        <f>V20+$P$54</f>
+        <f t="shared" si="4"/>
         <v>320.19155555555585</v>
       </c>
     </row>
@@ -4578,7 +4804,7 @@
         <v>328.28</v>
       </c>
       <c r="V22" s="1">
-        <f>V21+$P$54</f>
+        <f t="shared" si="4"/>
         <v>321.99111111111142</v>
       </c>
     </row>
@@ -4650,7 +4876,7 @@
         <v>327.94</v>
       </c>
       <c r="V23" s="1">
-        <f>V22+$P$54</f>
+        <f t="shared" si="4"/>
         <v>323.79066666666699</v>
       </c>
     </row>
@@ -4722,7 +4948,7 @@
         <v>334.57</v>
       </c>
       <c r="V24" s="1">
-        <f>V23+$P$54</f>
+        <f t="shared" si="4"/>
         <v>325.59022222222256</v>
       </c>
     </row>
@@ -4794,7 +5020,7 @@
         <v>329</v>
       </c>
       <c r="V25" s="1">
-        <f>V24+$P$54</f>
+        <f t="shared" si="4"/>
         <v>327.38977777777814</v>
       </c>
     </row>
@@ -4866,7 +5092,7 @@
         <v>329.71</v>
       </c>
       <c r="V26" s="1">
-        <f>V25+$P$54</f>
+        <f t="shared" si="4"/>
         <v>329.18933333333371</v>
       </c>
     </row>
@@ -4938,7 +5164,7 @@
         <v>329.37</v>
       </c>
       <c r="V27" s="1">
-        <f>V26+$P$54</f>
+        <f t="shared" si="4"/>
         <v>330.98888888888928</v>
       </c>
     </row>
@@ -5010,7 +5236,7 @@
         <v>325.95999999999998</v>
       </c>
       <c r="V28" s="1">
-        <f>V27+$P$54</f>
+        <f t="shared" si="4"/>
         <v>332.78844444444485</v>
       </c>
     </row>
@@ -5082,7 +5308,7 @@
         <v>331.7</v>
       </c>
       <c r="V29" s="1">
-        <f>V28+$P$54</f>
+        <f t="shared" si="4"/>
         <v>334.58800000000042</v>
       </c>
     </row>
@@ -5154,7 +5380,7 @@
         <v>326.01</v>
       </c>
       <c r="V30" s="1">
-        <f>V29+$P$54</f>
+        <f t="shared" si="4"/>
         <v>336.38755555555599</v>
       </c>
     </row>
@@ -5226,7 +5452,7 @@
         <v>326.25</v>
       </c>
       <c r="V31" s="1">
-        <f>V30+$P$54</f>
+        <f t="shared" si="4"/>
         <v>338.18711111111156</v>
       </c>
     </row>
@@ -5298,7 +5524,7 @@
         <v>327.41000000000003</v>
       </c>
       <c r="V32" s="1">
-        <f>V31+$P$54</f>
+        <f t="shared" si="4"/>
         <v>339.98666666666713</v>
       </c>
     </row>
@@ -5370,7 +5596,7 @@
         <v>326.48</v>
       </c>
       <c r="V33" s="1">
-        <f>V32+$P$54</f>
+        <f t="shared" si="4"/>
         <v>341.7862222222227</v>
       </c>
     </row>
@@ -5442,7 +5668,7 @@
         <v>333.51</v>
       </c>
       <c r="V34" s="1">
-        <f>V33+$P$54</f>
+        <f t="shared" si="4"/>
         <v>343.58577777777828</v>
       </c>
     </row>
@@ -5514,7 +5740,7 @@
         <v>326.99</v>
       </c>
       <c r="V35" s="1">
-        <f>V34+$P$54</f>
+        <f t="shared" si="4"/>
         <v>345.38533333333385</v>
       </c>
     </row>
@@ -5586,7 +5812,7 @@
         <v>329.56</v>
       </c>
       <c r="V36" s="1">
-        <f>V35+$P$54</f>
+        <f t="shared" si="4"/>
         <v>347.18488888888942</v>
       </c>
     </row>
@@ -5658,7 +5884,7 @@
         <v>326.92</v>
       </c>
       <c r="V37" s="1">
-        <f>V36+$P$54</f>
+        <f t="shared" si="4"/>
         <v>348.98444444444499</v>
       </c>
     </row>
@@ -5730,7 +5956,7 @@
         <v>323.25</v>
       </c>
       <c r="V38" s="1">
-        <f>V37+$P$54</f>
+        <f t="shared" si="4"/>
         <v>350.78400000000056</v>
       </c>
     </row>
@@ -5802,7 +6028,7 @@
         <v>327.8</v>
       </c>
       <c r="V39" s="1">
-        <f>V38+$P$54</f>
+        <f t="shared" si="4"/>
         <v>352.58355555555613</v>
       </c>
     </row>
@@ -5874,7 +6100,7 @@
         <v>327.02</v>
       </c>
       <c r="V40" s="1">
-        <f>V39+$P$54</f>
+        <f t="shared" si="4"/>
         <v>354.3831111111117</v>
       </c>
     </row>
@@ -5946,7 +6172,7 @@
         <v>325.44</v>
       </c>
       <c r="V41" s="1">
-        <f>V40+$P$54</f>
+        <f t="shared" si="4"/>
         <v>356.18266666666727</v>
       </c>
     </row>
@@ -6018,7 +6244,7 @@
         <v>331.68</v>
       </c>
       <c r="V42" s="1">
-        <f>V41+$P$54</f>
+        <f t="shared" si="4"/>
         <v>357.98222222222284</v>
       </c>
     </row>
@@ -6090,7 +6316,7 @@
         <v>329.3</v>
       </c>
       <c r="V43" s="1">
-        <f>V42+$P$54</f>
+        <f t="shared" si="4"/>
         <v>359.78177777777842</v>
       </c>
     </row>
@@ -6162,7 +6388,7 @@
         <v>328.43</v>
       </c>
       <c r="V44" s="1">
-        <f>V43+$P$54</f>
+        <f t="shared" si="4"/>
         <v>361.58133333333399</v>
       </c>
     </row>
@@ -6234,7 +6460,7 @@
         <v>340.99</v>
       </c>
       <c r="V45" s="1">
-        <f>V44+$P$54</f>
+        <f t="shared" si="4"/>
         <v>363.38088888888956</v>
       </c>
     </row>
@@ -6306,123 +6532,123 @@
         <v>338.48</v>
       </c>
       <c r="V46" s="1">
-        <f>V45+$P$54</f>
+        <f t="shared" si="4"/>
         <v>365.18044444444513</v>
       </c>
     </row>
     <row r="51" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="L51" s="8" t="s">
+      <c r="J51" s="12"/>
+      <c r="L51" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="M51" s="9"/>
-      <c r="O51" s="8" t="s">
+      <c r="M51" s="12"/>
+      <c r="O51" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P51" s="9"/>
+      <c r="P51" s="8"/>
     </row>
     <row r="52" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I52" s="9" t="s">
+      <c r="I52" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="10">
         <f>SUMPRODUCT(F2:F46,M2:M46)/COUNT(F2:F46)</f>
         <v>103354.92552222224</v>
       </c>
-      <c r="L52" s="9" t="s">
+      <c r="L52" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="10">
         <f>Лист2!B17</f>
         <v>-10447.477569833822</v>
       </c>
-      <c r="O52" s="9" t="s">
+      <c r="O52" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="P52" s="9">
+      <c r="P52" s="8">
         <f>MIN(Акции[&lt;CLOSE&gt;])</f>
         <v>282.27</v>
       </c>
     </row>
     <row r="53" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I53" s="9" t="s">
+      <c r="I53" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="8">
         <f>AVERAGE(F2:F46)*AVERAGE(M2:M46)</f>
         <v>103282.98192395059</v>
       </c>
-      <c r="L53" s="9" t="s">
+      <c r="L53" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M53" s="9">
+      <c r="M53" s="8">
         <f>Лист2!B18</f>
         <v>99.932007262911654</v>
       </c>
-      <c r="O53" s="9" t="s">
+      <c r="O53" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="P53" s="9">
+      <c r="P53" s="8">
         <f>MAX(Акции[&lt;CLOSE&gt;])</f>
         <v>363.25</v>
       </c>
     </row>
     <row r="54" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I54" s="9" t="s">
+      <c r="I54" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="8">
         <f>SUMPRODUCT(F2:F46,F2:F46)/COUNT(F2:F46)</f>
         <v>100233.43362666665</v>
       </c>
-      <c r="L54" s="9" t="s">
+      <c r="L54" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M54" s="9">
+      <c r="M54" s="8">
         <f>Лист2!B19</f>
         <v>-0.30821049906870251</v>
       </c>
-      <c r="O54" s="9" t="s">
+      <c r="O54" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="P54" s="9">
+      <c r="P54" s="8">
         <f>(P53-P52)/45</f>
         <v>1.799555555555556</v>
       </c>
     </row>
     <row r="55" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I55" s="9" t="s">
+      <c r="I55" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J55" s="8">
         <f>AVERAGE(F2:F46)^2</f>
         <v>99634.221056790091</v>
       </c>
-      <c r="L55" s="9" t="s">
+      <c r="L55" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M55" s="9">
+      <c r="M55" s="8">
         <f>Лист2!B20</f>
         <v>3.1616140441778536E-4</v>
       </c>
     </row>
     <row r="56" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I56" s="9" t="s">
+      <c r="I56" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J56" s="8">
         <f>(J52-J53)/(J54-J55)</f>
         <v>0.12006356656782732</v>
       </c>
     </row>
     <row r="57" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I57" s="9" t="s">
+      <c r="I57" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="8">
         <f>AVERAGE(M2:M46)-J56*AVERAGE(F2:F46)</f>
         <v>289.31051306127256</v>
       </c>
@@ -6444,7 +6670,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6466,13 +6692,14 @@
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">LEFT(CELL("имяфайла"),FIND("\[",CELL("имяфайла"))) &amp; "Data\"</f>
-        <v>D:\FinU\2021-2022\Д_Excel\Тема 4 КРА в Excel\Data\</v>
+        <v>C:\Users\mvsmirnov\Downloads\Д_Excel\Тема 4 КРА в Excel\Data\</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
